--- a/src/main/resources/static/excel/Liste des comptes.xlsx
+++ b/src/main/resources/static/excel/Liste des comptes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7224"/>
   </bookViews>
   <sheets>
     <sheet name="Final" sheetId="6" r:id="rId1"/>
@@ -1360,9 +1360,6 @@
     <t>label</t>
   </si>
   <si>
-    <t>prime</t>
-  </si>
-  <si>
     <t>second</t>
   </si>
   <si>
@@ -1373,6 +1370,9 @@
   </si>
   <si>
     <t>Produits</t>
+  </si>
+  <si>
+    <t>prime12</t>
   </si>
 </sst>
 </file>
@@ -1430,10 +1430,13 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:D405" totalsRowShown="0">
   <autoFilter ref="A1:D405"/>
+  <sortState ref="A2:D405">
+    <sortCondition ref="A1:A405"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="number"/>
     <tableColumn id="2" name="label"/>
-    <tableColumn id="3" name="prime"/>
+    <tableColumn id="3" name="prime12"/>
     <tableColumn id="4" name="second"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1729,19 +1732,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="A251" sqref="A251:XFD251"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.953125" customWidth="1"/>
-    <col min="2" max="2" width="80.31640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="80.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>444</v>
       </c>
@@ -1749,13 +1752,13 @@
         <v>445</v>
       </c>
       <c r="C1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1" t="s">
         <v>446</v>
       </c>
-      <c r="D1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.65">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1111</v>
       </c>
@@ -1763,13 +1766,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1112</v>
       </c>
@@ -1777,13 +1780,13 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1117</v>
       </c>
@@ -1791,13 +1794,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1119</v>
       </c>
@@ -1805,13 +1808,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1121</v>
       </c>
@@ -1819,13 +1822,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1122</v>
       </c>
@@ -1833,13 +1836,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1123</v>
       </c>
@@ -1847,13 +1850,13 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1130</v>
       </c>
@@ -1861,13 +1864,13 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1140</v>
       </c>
@@ -1875,13 +1878,13 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1151</v>
       </c>
@@ -1889,13 +1892,13 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1152</v>
       </c>
@@ -1903,13 +1906,13 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1155</v>
       </c>
@@ -1917,13 +1920,13 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1161</v>
       </c>
@@ -1931,13 +1934,13 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1169</v>
       </c>
@@ -1945,13 +1948,13 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1181</v>
       </c>
@@ -1959,13 +1962,13 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1189</v>
       </c>
@@ -1973,13 +1976,13 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1191</v>
       </c>
@@ -1987,13 +1990,13 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1199</v>
       </c>
@@ -2001,13 +2004,13 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1311</v>
       </c>
@@ -2015,13 +2018,13 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1319</v>
       </c>
@@ -2029,13 +2032,13 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1351</v>
       </c>
@@ -2043,13 +2046,13 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1352</v>
       </c>
@@ -2057,13 +2060,13 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1354</v>
       </c>
@@ -2071,13 +2074,13 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1355</v>
       </c>
@@ -2085,13 +2088,13 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1356</v>
       </c>
@@ -2099,13 +2102,13 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1358</v>
       </c>
@@ -2113,13 +2116,13 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1410</v>
       </c>
@@ -2127,13 +2130,13 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1481</v>
       </c>
@@ -2141,13 +2144,13 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1482</v>
       </c>
@@ -2155,13 +2158,13 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1483</v>
       </c>
@@ -2169,13 +2172,13 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1484</v>
       </c>
@@ -2183,13 +2186,13 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1485</v>
       </c>
@@ -2197,13 +2200,13 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1486</v>
       </c>
@@ -2211,13 +2214,13 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1487</v>
       </c>
@@ -2225,13 +2228,13 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1488</v>
       </c>
@@ -2239,13 +2242,13 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1511</v>
       </c>
@@ -2253,13 +2256,13 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1512</v>
       </c>
@@ -2267,13 +2270,13 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1513</v>
       </c>
@@ -2281,13 +2284,13 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1514</v>
       </c>
@@ -2295,13 +2298,13 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1515</v>
       </c>
@@ -2309,13 +2312,13 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1516</v>
       </c>
@@ -2323,13 +2326,13 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1518</v>
       </c>
@@ -2337,13 +2340,13 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D43" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1551</v>
       </c>
@@ -2351,13 +2354,13 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D44" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1552</v>
       </c>
@@ -2365,13 +2368,13 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1555</v>
       </c>
@@ -2379,13 +2382,13 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D46" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1558</v>
       </c>
@@ -2393,13 +2396,13 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1601</v>
       </c>
@@ -2407,13 +2410,13 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1605</v>
       </c>
@@ -2421,13 +2424,13 @@
         <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D49" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1710</v>
       </c>
@@ -2435,13 +2438,13 @@
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D50" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1720</v>
       </c>
@@ -2449,13 +2452,13 @@
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2111</v>
       </c>
@@ -2463,13 +2466,13 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D52" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2112</v>
       </c>
@@ -2477,13 +2480,13 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D53" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2113</v>
       </c>
@@ -2491,13 +2494,13 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D54" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2114</v>
       </c>
@@ -2505,13 +2508,13 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2116</v>
       </c>
@@ -2519,13 +2522,13 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D56" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2117</v>
       </c>
@@ -2533,13 +2536,13 @@
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2118</v>
       </c>
@@ -2547,13 +2550,13 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D58" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2121</v>
       </c>
@@ -2561,13 +2564,13 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2125</v>
       </c>
@@ -2575,13 +2578,13 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2128</v>
       </c>
@@ -2589,13 +2592,13 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D61" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2130</v>
       </c>
@@ -2603,13 +2606,13 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D62" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2210</v>
       </c>
@@ -2617,13 +2620,13 @@
         <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D63" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2220</v>
       </c>
@@ -2631,13 +2634,13 @@
         <v>72</v>
       </c>
       <c r="C64" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D64" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2230</v>
       </c>
@@ -2645,13 +2648,13 @@
         <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D65" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2285</v>
       </c>
@@ -2659,13 +2662,13 @@
         <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D66" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2311</v>
       </c>
@@ -2673,13 +2676,13 @@
         <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D67" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2312</v>
       </c>
@@ -2687,13 +2690,13 @@
         <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D68" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2313</v>
       </c>
@@ -2701,13 +2704,13 @@
         <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D69" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2314</v>
       </c>
@@ -2715,13 +2718,13 @@
         <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D70" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2316</v>
       </c>
@@ -2729,13 +2732,13 @@
         <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D71" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2318</v>
       </c>
@@ -2743,13 +2746,13 @@
         <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2321</v>
       </c>
@@ -2757,13 +2760,13 @@
         <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D73" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2323</v>
       </c>
@@ -2771,13 +2774,13 @@
         <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D74" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2325</v>
       </c>
@@ -2785,13 +2788,13 @@
         <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D75" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2327</v>
       </c>
@@ -2799,13 +2802,13 @@
         <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2328</v>
       </c>
@@ -2813,13 +2816,13 @@
         <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D77" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2331</v>
       </c>
@@ -2827,13 +2830,13 @@
         <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D78" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2332</v>
       </c>
@@ -2841,13 +2844,13 @@
         <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D79" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2333</v>
       </c>
@@ -2855,13 +2858,13 @@
         <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D80" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2338</v>
       </c>
@@ -2869,13 +2872,13 @@
         <v>90</v>
       </c>
       <c r="C81" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D81" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2340</v>
       </c>
@@ -2883,13 +2886,13 @@
         <v>91</v>
       </c>
       <c r="C82" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D82" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2351</v>
       </c>
@@ -2897,13 +2900,13 @@
         <v>92</v>
       </c>
       <c r="C83" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D83" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2352</v>
       </c>
@@ -2911,13 +2914,13 @@
         <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D84" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2355</v>
       </c>
@@ -2925,13 +2928,13 @@
         <v>94</v>
       </c>
       <c r="C85" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D85" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2356</v>
       </c>
@@ -2939,13 +2942,13 @@
         <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D86" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2358</v>
       </c>
@@ -2953,13 +2956,13 @@
         <v>96</v>
       </c>
       <c r="C87" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D87" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2380</v>
       </c>
@@ -2967,13 +2970,13 @@
         <v>97</v>
       </c>
       <c r="C88" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D88" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2392</v>
       </c>
@@ -2981,13 +2984,13 @@
         <v>98</v>
       </c>
       <c r="C89" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D89" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2393</v>
       </c>
@@ -2995,13 +2998,13 @@
         <v>99</v>
       </c>
       <c r="C90" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D90" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2394</v>
       </c>
@@ -3009,13 +3012,13 @@
         <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D91" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2395</v>
       </c>
@@ -3023,13 +3026,13 @@
         <v>101</v>
       </c>
       <c r="C92" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D92" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2397</v>
       </c>
@@ -3037,13 +3040,13 @@
         <v>102</v>
       </c>
       <c r="C93" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D93" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2398</v>
       </c>
@@ -3051,13 +3054,13 @@
         <v>103</v>
       </c>
       <c r="C94" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D94" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2411</v>
       </c>
@@ -3065,13 +3068,13 @@
         <v>105</v>
       </c>
       <c r="C95" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D95" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2415</v>
       </c>
@@ -3079,13 +3082,13 @@
         <v>106</v>
       </c>
       <c r="C96" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D96" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2418</v>
       </c>
@@ -3093,13 +3096,13 @@
         <v>107</v>
       </c>
       <c r="C97" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D97" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2481</v>
       </c>
@@ -3107,13 +3110,13 @@
         <v>108</v>
       </c>
       <c r="C98" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D98" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2483</v>
       </c>
@@ -3121,13 +3124,13 @@
         <v>110</v>
       </c>
       <c r="C99" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D99" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2486</v>
       </c>
@@ -3135,13 +3138,13 @@
         <v>111</v>
       </c>
       <c r="C100" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D100" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2487</v>
       </c>
@@ -3149,13 +3152,13 @@
         <v>112</v>
       </c>
       <c r="C101" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D101" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2488</v>
       </c>
@@ -3163,13 +3166,13 @@
         <v>113</v>
       </c>
       <c r="C102" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D102" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2510</v>
       </c>
@@ -3177,13 +3180,13 @@
         <v>114</v>
       </c>
       <c r="C103" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D103" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2581</v>
       </c>
@@ -3191,13 +3194,13 @@
         <v>115</v>
       </c>
       <c r="C104" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D104" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2588</v>
       </c>
@@ -3205,13 +3208,13 @@
         <v>116</v>
       </c>
       <c r="C105" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2710</v>
       </c>
@@ -3219,13 +3222,13 @@
         <v>118</v>
       </c>
       <c r="C106" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D106" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2720</v>
       </c>
@@ -3233,13 +3236,13 @@
         <v>119</v>
       </c>
       <c r="C107" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D107" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2811</v>
       </c>
@@ -3247,13 +3250,13 @@
         <v>121</v>
       </c>
       <c r="C108" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D108" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2812</v>
       </c>
@@ -3261,13 +3264,13 @@
         <v>122</v>
       </c>
       <c r="C109" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D109" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2821</v>
       </c>
@@ -3275,13 +3278,13 @@
         <v>123</v>
       </c>
       <c r="C110" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D110" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2822</v>
       </c>
@@ -3289,13 +3292,13 @@
         <v>124</v>
       </c>
       <c r="C111" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D111" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2823</v>
       </c>
@@ -3303,13 +3306,13 @@
         <v>125</v>
       </c>
       <c r="C112" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D112" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2828</v>
       </c>
@@ -3317,13 +3320,13 @@
         <v>126</v>
       </c>
       <c r="C113" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D113" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2831</v>
       </c>
@@ -3331,13 +3334,13 @@
         <v>127</v>
       </c>
       <c r="C114" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D114" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2832</v>
       </c>
@@ -3345,13 +3348,13 @@
         <v>128</v>
       </c>
       <c r="C115" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D115" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2833</v>
       </c>
@@ -3359,13 +3362,13 @@
         <v>129</v>
       </c>
       <c r="C116" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D116" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2834</v>
       </c>
@@ -3373,13 +3376,13 @@
         <v>130</v>
       </c>
       <c r="C117" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D117" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2835</v>
       </c>
@@ -3387,13 +3390,13 @@
         <v>131</v>
       </c>
       <c r="C118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D118" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2838</v>
       </c>
@@ -3401,13 +3404,13 @@
         <v>132</v>
       </c>
       <c r="C119" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D119" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2920</v>
       </c>
@@ -3415,13 +3418,13 @@
         <v>134</v>
       </c>
       <c r="C120" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D120" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2930</v>
       </c>
@@ -3429,13 +3432,13 @@
         <v>135</v>
       </c>
       <c r="C121" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D121" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2941</v>
       </c>
@@ -3443,13 +3446,13 @@
         <v>136</v>
       </c>
       <c r="C122" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D122" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2948</v>
       </c>
@@ -3457,13 +3460,13 @@
         <v>137</v>
       </c>
       <c r="C123" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D123" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2951</v>
       </c>
@@ -3471,13 +3474,13 @@
         <v>138</v>
       </c>
       <c r="C124" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D124" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2958</v>
       </c>
@@ -3485,13 +3488,13 @@
         <v>139</v>
       </c>
       <c r="C125" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D125" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>3111</v>
       </c>
@@ -3499,13 +3502,13 @@
         <v>142</v>
       </c>
       <c r="C126" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D126" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>3112</v>
       </c>
@@ -3513,13 +3516,13 @@
         <v>143</v>
       </c>
       <c r="C127" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D127" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>3116</v>
       </c>
@@ -3527,13 +3530,13 @@
         <v>144</v>
       </c>
       <c r="C128" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D128" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>3118</v>
       </c>
@@ -3541,13 +3544,13 @@
         <v>145</v>
       </c>
       <c r="C129" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D129" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>3121</v>
       </c>
@@ -3555,13 +3558,13 @@
         <v>147</v>
       </c>
       <c r="C130" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D130" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>3122</v>
       </c>
@@ -3569,13 +3572,13 @@
         <v>146</v>
       </c>
       <c r="C131" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D131" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>3123</v>
       </c>
@@ -3583,13 +3586,13 @@
         <v>148</v>
       </c>
       <c r="C132" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D132" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>3126</v>
       </c>
@@ -3597,13 +3600,13 @@
         <v>149</v>
       </c>
       <c r="C133" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D133" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>3128</v>
       </c>
@@ -3611,13 +3614,13 @@
         <v>150</v>
       </c>
       <c r="C134" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D134" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>3131</v>
       </c>
@@ -3625,13 +3628,13 @@
         <v>151</v>
       </c>
       <c r="C135" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D135" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>3134</v>
       </c>
@@ -3639,13 +3642,13 @@
         <v>152</v>
       </c>
       <c r="C136" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D136" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>3138</v>
       </c>
@@ -3653,13 +3656,13 @@
         <v>153</v>
       </c>
       <c r="C137" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D137" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>3141</v>
       </c>
@@ -3667,13 +3670,13 @@
         <v>154</v>
       </c>
       <c r="C138" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D138" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>3145</v>
       </c>
@@ -3681,13 +3684,13 @@
         <v>155</v>
       </c>
       <c r="C139" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D139" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>3148</v>
       </c>
@@ -3695,13 +3698,13 @@
         <v>156</v>
       </c>
       <c r="C140" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D140" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>3151</v>
       </c>
@@ -3709,13 +3712,13 @@
         <v>157</v>
       </c>
       <c r="C141" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D141" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>3152</v>
       </c>
@@ -3723,13 +3726,13 @@
         <v>158</v>
       </c>
       <c r="C142" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>3156</v>
       </c>
@@ -3737,13 +3740,13 @@
         <v>159</v>
       </c>
       <c r="C143" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D143" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>3158</v>
       </c>
@@ -3751,13 +3754,13 @@
         <v>160</v>
       </c>
       <c r="C144" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D144" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>3411</v>
       </c>
@@ -3765,13 +3768,13 @@
         <v>162</v>
       </c>
       <c r="C145" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D145" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>3413</v>
       </c>
@@ -3779,13 +3782,13 @@
         <v>163</v>
       </c>
       <c r="C146" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D146" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>3417</v>
       </c>
@@ -3793,13 +3796,13 @@
         <v>164</v>
       </c>
       <c r="C147" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D147" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>3418</v>
       </c>
@@ -3807,13 +3810,13 @@
         <v>165</v>
       </c>
       <c r="C148" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D148" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>3421</v>
       </c>
@@ -3821,13 +3824,13 @@
         <v>166</v>
       </c>
       <c r="C149" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D149" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>3423</v>
       </c>
@@ -3835,13 +3838,13 @@
         <v>167</v>
       </c>
       <c r="C150" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D150" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>3424</v>
       </c>
@@ -3849,13 +3852,13 @@
         <v>168</v>
       </c>
       <c r="C151" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D151" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>3425</v>
       </c>
@@ -3863,13 +3866,13 @@
         <v>169</v>
       </c>
       <c r="C152" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D152" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>3427</v>
       </c>
@@ -3877,13 +3880,13 @@
         <v>170</v>
       </c>
       <c r="C153" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D153" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>3428</v>
       </c>
@@ -3891,13 +3894,13 @@
         <v>171</v>
       </c>
       <c r="C154" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D154" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>3431</v>
       </c>
@@ -3905,13 +3908,13 @@
         <v>172</v>
       </c>
       <c r="C155" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D155" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>3438</v>
       </c>
@@ -3919,13 +3922,13 @@
         <v>173</v>
       </c>
       <c r="C156" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D156" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>3451</v>
       </c>
@@ -3933,13 +3936,13 @@
         <v>174</v>
       </c>
       <c r="C157" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D157" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>3453</v>
       </c>
@@ -3947,13 +3950,13 @@
         <v>175</v>
       </c>
       <c r="C158" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D158" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>3455</v>
       </c>
@@ -3961,13 +3964,13 @@
         <v>176</v>
       </c>
       <c r="C159" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D159" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>3456</v>
       </c>
@@ -3975,13 +3978,13 @@
         <v>177</v>
       </c>
       <c r="C160" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D160" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>3458</v>
       </c>
@@ -3989,13 +3992,13 @@
         <v>178</v>
       </c>
       <c r="C161" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D161" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>3461</v>
       </c>
@@ -4003,13 +4006,13 @@
         <v>179</v>
       </c>
       <c r="C162" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>3462</v>
       </c>
@@ -4017,13 +4020,13 @@
         <v>180</v>
       </c>
       <c r="C163" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D163" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>3463</v>
       </c>
@@ -4031,13 +4034,13 @@
         <v>181</v>
       </c>
       <c r="C164" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D164" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>3464</v>
       </c>
@@ -4045,13 +4048,13 @@
         <v>182</v>
       </c>
       <c r="C165" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D165" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>3467</v>
       </c>
@@ -4059,13 +4062,13 @@
         <v>183</v>
       </c>
       <c r="C166" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D166" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>3468</v>
       </c>
@@ -4073,13 +4076,13 @@
         <v>184</v>
       </c>
       <c r="C167" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D167" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>3481</v>
       </c>
@@ -4087,13 +4090,13 @@
         <v>185</v>
       </c>
       <c r="C168" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D168" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>3482</v>
       </c>
@@ -4101,13 +4104,13 @@
         <v>186</v>
       </c>
       <c r="C169" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D169" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>3487</v>
       </c>
@@ -4115,13 +4118,13 @@
         <v>187</v>
       </c>
       <c r="C170" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D170" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>3488</v>
       </c>
@@ -4129,13 +4132,13 @@
         <v>188</v>
       </c>
       <c r="C171" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D171" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>3491</v>
       </c>
@@ -4143,13 +4146,13 @@
         <v>189</v>
       </c>
       <c r="C172" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D172" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>3493</v>
       </c>
@@ -4157,13 +4160,13 @@
         <v>190</v>
       </c>
       <c r="C173" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D173" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>3495</v>
       </c>
@@ -4171,13 +4174,13 @@
         <v>191</v>
       </c>
       <c r="C174" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D174" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>3497</v>
       </c>
@@ -4185,13 +4188,13 @@
         <v>192</v>
       </c>
       <c r="C175" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D175" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>3501</v>
       </c>
@@ -4199,13 +4202,13 @@
         <v>194</v>
       </c>
       <c r="C176" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D176" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>3502</v>
       </c>
@@ -4213,13 +4216,13 @@
         <v>195</v>
       </c>
       <c r="C177" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D177" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>3504</v>
       </c>
@@ -4227,13 +4230,13 @@
         <v>109</v>
       </c>
       <c r="C178" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D178" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>3506</v>
       </c>
@@ -4241,13 +4244,13 @@
         <v>196</v>
       </c>
       <c r="C179" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D179" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>3508</v>
       </c>
@@ -4255,13 +4258,13 @@
         <v>197</v>
       </c>
       <c r="C180" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D180" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>3701</v>
       </c>
@@ -4269,13 +4272,13 @@
         <v>199</v>
       </c>
       <c r="C181" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D181" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>3702</v>
       </c>
@@ -4283,13 +4286,13 @@
         <v>200</v>
       </c>
       <c r="C182" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D182" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>3911</v>
       </c>
@@ -4297,13 +4300,13 @@
         <v>202</v>
       </c>
       <c r="C183" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D183" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>3912</v>
       </c>
@@ -4311,13 +4314,13 @@
         <v>203</v>
       </c>
       <c r="C184" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D184" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>3913</v>
       </c>
@@ -4325,13 +4328,13 @@
         <v>204</v>
       </c>
       <c r="C185" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D185" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>3914</v>
       </c>
@@ -4339,13 +4342,13 @@
         <v>205</v>
       </c>
       <c r="C186" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D186" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>3915</v>
       </c>
@@ -4353,13 +4356,13 @@
         <v>206</v>
       </c>
       <c r="C187" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D187" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>3941</v>
       </c>
@@ -4367,13 +4370,13 @@
         <v>207</v>
       </c>
       <c r="C188" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D188" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>3942</v>
       </c>
@@ -4381,13 +4384,13 @@
         <v>208</v>
       </c>
       <c r="C189" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D189" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>3943</v>
       </c>
@@ -4395,13 +4398,13 @@
         <v>209</v>
       </c>
       <c r="C190" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D190" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>3946</v>
       </c>
@@ -4409,13 +4412,13 @@
         <v>210</v>
       </c>
       <c r="C191" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D191" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>3948</v>
       </c>
@@ -4423,13 +4426,13 @@
         <v>211</v>
       </c>
       <c r="C192" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D192" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>3950</v>
       </c>
@@ -4437,13 +4440,13 @@
         <v>212</v>
       </c>
       <c r="C193" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D193" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>4411</v>
       </c>
@@ -4451,13 +4454,13 @@
         <v>215</v>
       </c>
       <c r="C194" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D194" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>4413</v>
       </c>
@@ -4465,13 +4468,13 @@
         <v>216</v>
       </c>
       <c r="C195" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D195" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>4415</v>
       </c>
@@ -4479,13 +4482,13 @@
         <v>217</v>
       </c>
       <c r="C196" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D196" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>4417</v>
       </c>
@@ -4493,13 +4496,13 @@
         <v>218</v>
       </c>
       <c r="C197" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D197" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>4418</v>
       </c>
@@ -4507,13 +4510,13 @@
         <v>219</v>
       </c>
       <c r="C198" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D198" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>4421</v>
       </c>
@@ -4521,13 +4524,13 @@
         <v>220</v>
       </c>
       <c r="C199" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D199" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>4425</v>
       </c>
@@ -4535,13 +4538,13 @@
         <v>221</v>
       </c>
       <c r="C200" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D200" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>4427</v>
       </c>
@@ -4549,13 +4552,13 @@
         <v>222</v>
       </c>
       <c r="C201" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D201" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>4428</v>
       </c>
@@ -4563,13 +4566,13 @@
         <v>223</v>
       </c>
       <c r="C202" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D202" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>4432</v>
       </c>
@@ -4577,13 +4580,13 @@
         <v>224</v>
       </c>
       <c r="C203" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D203" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>4433</v>
       </c>
@@ -4591,13 +4594,13 @@
         <v>225</v>
       </c>
       <c r="C204" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D204" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>4434</v>
       </c>
@@ -4605,13 +4608,13 @@
         <v>226</v>
       </c>
       <c r="C205" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D205" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>4437</v>
       </c>
@@ -4619,13 +4622,13 @@
         <v>227</v>
       </c>
       <c r="C206" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D206" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>4438</v>
       </c>
@@ -4633,13 +4636,13 @@
         <v>228</v>
       </c>
       <c r="C207" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D207" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>4441</v>
       </c>
@@ -4647,13 +4650,13 @@
         <v>229</v>
       </c>
       <c r="C208" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D208" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>4443</v>
       </c>
@@ -4661,13 +4664,13 @@
         <v>230</v>
       </c>
       <c r="C209" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D209" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>4445</v>
       </c>
@@ -4675,13 +4678,13 @@
         <v>231</v>
       </c>
       <c r="C210" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D210" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>4447</v>
       </c>
@@ -4689,13 +4692,13 @@
         <v>232</v>
       </c>
       <c r="C211" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D211" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>4448</v>
       </c>
@@ -4703,13 +4706,13 @@
         <v>233</v>
       </c>
       <c r="C212" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D212" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>4452</v>
       </c>
@@ -4717,13 +4720,13 @@
         <v>234</v>
       </c>
       <c r="C213" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D213" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>4453</v>
       </c>
@@ -4731,13 +4734,13 @@
         <v>235</v>
       </c>
       <c r="C214" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D214" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>4455</v>
       </c>
@@ -4745,13 +4748,13 @@
         <v>236</v>
       </c>
       <c r="C215" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D215" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>4456</v>
       </c>
@@ -4759,13 +4762,13 @@
         <v>237</v>
       </c>
       <c r="C216" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D216" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>4457</v>
       </c>
@@ -4773,13 +4776,13 @@
         <v>238</v>
       </c>
       <c r="C217" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D217" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>4458</v>
       </c>
@@ -4787,13 +4790,13 @@
         <v>239</v>
       </c>
       <c r="C218" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D218" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>4461</v>
       </c>
@@ -4801,13 +4804,13 @@
         <v>240</v>
       </c>
       <c r="C219" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D219" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>4462</v>
       </c>
@@ -4815,13 +4818,13 @@
         <v>241</v>
       </c>
       <c r="C220" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D220" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>4463</v>
       </c>
@@ -4829,13 +4832,13 @@
         <v>242</v>
       </c>
       <c r="C221" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D221" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>4465</v>
       </c>
@@ -4843,13 +4846,13 @@
         <v>243</v>
       </c>
       <c r="C222" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D222" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>4468</v>
       </c>
@@ -4857,13 +4860,13 @@
         <v>244</v>
       </c>
       <c r="C223" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D223" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>4481</v>
       </c>
@@ -4871,13 +4874,13 @@
         <v>245</v>
       </c>
       <c r="C224" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D224" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>4483</v>
       </c>
@@ -4885,13 +4888,13 @@
         <v>246</v>
       </c>
       <c r="C225" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D225" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>4484</v>
       </c>
@@ -4899,13 +4902,13 @@
         <v>247</v>
       </c>
       <c r="C226" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D226" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>4485</v>
       </c>
@@ -4913,13 +4916,13 @@
         <v>248</v>
       </c>
       <c r="C227" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D227" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>4487</v>
       </c>
@@ -4927,13 +4930,13 @@
         <v>249</v>
       </c>
       <c r="C228" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D228" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>4488</v>
       </c>
@@ -4941,13 +4944,13 @@
         <v>250</v>
       </c>
       <c r="C229" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D229" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>4491</v>
       </c>
@@ -4955,13 +4958,13 @@
         <v>251</v>
       </c>
       <c r="C230" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D230" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>4493</v>
       </c>
@@ -4969,13 +4972,13 @@
         <v>252</v>
       </c>
       <c r="C231" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D231" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>4495</v>
       </c>
@@ -4983,13 +4986,13 @@
         <v>253</v>
       </c>
       <c r="C232" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D232" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>4497</v>
       </c>
@@ -4997,13 +5000,13 @@
         <v>254</v>
       </c>
       <c r="C233" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D233" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>4505</v>
       </c>
@@ -5011,13 +5014,13 @@
         <v>257</v>
       </c>
       <c r="C234" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D234" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>4508</v>
       </c>
@@ -5025,13 +5028,13 @@
         <v>256</v>
       </c>
       <c r="C235" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D235" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>4701</v>
       </c>
@@ -5039,13 +5042,13 @@
         <v>259</v>
       </c>
       <c r="C236" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D236" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>5111</v>
       </c>
@@ -5053,13 +5056,13 @@
         <v>262</v>
       </c>
       <c r="C237" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D237" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>5113</v>
       </c>
@@ -5067,13 +5070,13 @@
         <v>263</v>
       </c>
       <c r="C238" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D238" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>5115</v>
       </c>
@@ -5081,13 +5084,13 @@
         <v>264</v>
       </c>
       <c r="C239" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D239" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>5118</v>
       </c>
@@ -5095,13 +5098,13 @@
         <v>265</v>
       </c>
       <c r="C240" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D240" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>5141</v>
       </c>
@@ -5109,13 +5112,13 @@
         <v>266</v>
       </c>
       <c r="C241" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D241" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>5143</v>
       </c>
@@ -5123,13 +5126,13 @@
         <v>267</v>
       </c>
       <c r="C242" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D242" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>5146</v>
       </c>
@@ -5137,13 +5140,13 @@
         <v>268</v>
       </c>
       <c r="C243" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D243" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>5148</v>
       </c>
@@ -5151,13 +5154,13 @@
         <v>269</v>
       </c>
       <c r="C244" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D244" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>5161</v>
       </c>
@@ -5165,13 +5168,13 @@
         <v>270</v>
       </c>
       <c r="C245" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D245" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>5165</v>
       </c>
@@ -5179,13 +5182,13 @@
         <v>271</v>
       </c>
       <c r="C246" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D246" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>5520</v>
       </c>
@@ -5193,13 +5196,13 @@
         <v>273</v>
       </c>
       <c r="C247" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D247" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>5530</v>
       </c>
@@ -5207,13 +5210,13 @@
         <v>274</v>
       </c>
       <c r="C248" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D248" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>5541</v>
       </c>
@@ -5221,13 +5224,13 @@
         <v>275</v>
       </c>
       <c r="C249" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D249" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>5548</v>
       </c>
@@ -5235,13 +5238,13 @@
         <v>276</v>
       </c>
       <c r="C250" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D250" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>5900</v>
       </c>
@@ -5249,13 +5252,13 @@
         <v>277</v>
       </c>
       <c r="C251" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D251" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>6111</v>
       </c>
@@ -5269,7 +5272,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>6112</v>
       </c>
@@ -5283,7 +5286,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>6114</v>
       </c>
@@ -5297,7 +5300,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>6118</v>
       </c>
@@ -5311,7 +5314,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>6119</v>
       </c>
@@ -5325,7 +5328,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>6121</v>
       </c>
@@ -5339,7 +5342,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>6122</v>
       </c>
@@ -5353,7 +5356,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>6123</v>
       </c>
@@ -5367,7 +5370,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>6124</v>
       </c>
@@ -5381,7 +5384,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>6125</v>
       </c>
@@ -5395,7 +5398,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>6126</v>
       </c>
@@ -5409,7 +5412,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>6128</v>
       </c>
@@ -5423,7 +5426,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>6129</v>
       </c>
@@ -5437,7 +5440,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>6131</v>
       </c>
@@ -5451,7 +5454,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>6132</v>
       </c>
@@ -5465,7 +5468,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>6133</v>
       </c>
@@ -5479,7 +5482,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>6134</v>
       </c>
@@ -5493,7 +5496,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>6135</v>
       </c>
@@ -5507,7 +5510,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>6136</v>
       </c>
@@ -5521,7 +5524,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>6137</v>
       </c>
@@ -5535,7 +5538,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>6141</v>
       </c>
@@ -5549,7 +5552,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>6142</v>
       </c>
@@ -5563,7 +5566,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>6143</v>
       </c>
@@ -5577,7 +5580,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>6144</v>
       </c>
@@ -5591,7 +5594,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>6145</v>
       </c>
@@ -5605,7 +5608,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>6146</v>
       </c>
@@ -5619,7 +5622,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>6147</v>
       </c>
@@ -5633,7 +5636,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>6148</v>
       </c>
@@ -5647,7 +5650,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>6149</v>
       </c>
@@ -5661,7 +5664,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>6161</v>
       </c>
@@ -5675,7 +5678,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>6165</v>
       </c>
@@ -5689,7 +5692,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>6167</v>
       </c>
@@ -5703,7 +5706,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>6168</v>
       </c>
@@ -5717,7 +5720,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>6171</v>
       </c>
@@ -5731,7 +5734,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>6174</v>
       </c>
@@ -5745,7 +5748,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>6176</v>
       </c>
@@ -5759,7 +5762,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>6177</v>
       </c>
@@ -5773,7 +5776,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>6178</v>
       </c>
@@ -5787,7 +5790,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>6181</v>
       </c>
@@ -5801,7 +5804,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>6182</v>
       </c>
@@ -5815,7 +5818,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>6185</v>
       </c>
@@ -5829,7 +5832,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>6186</v>
       </c>
@@ -5843,7 +5846,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>6188</v>
       </c>
@@ -5857,7 +5860,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>6191</v>
       </c>
@@ -5871,7 +5874,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>6192</v>
       </c>
@@ -5885,7 +5888,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>6193</v>
       </c>
@@ -5899,7 +5902,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>6194</v>
       </c>
@@ -5913,7 +5916,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>6195</v>
       </c>
@@ -5927,7 +5930,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>6196</v>
       </c>
@@ -5941,7 +5944,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>6198</v>
       </c>
@@ -5955,7 +5958,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>6311</v>
       </c>
@@ -5969,7 +5972,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>6318</v>
       </c>
@@ -5983,7 +5986,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>6331</v>
       </c>
@@ -5997,7 +6000,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>6338</v>
       </c>
@@ -6011,7 +6014,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>6382</v>
       </c>
@@ -6025,7 +6028,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>6385</v>
       </c>
@@ -6039,7 +6042,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>6386</v>
       </c>
@@ -6053,7 +6056,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>6388</v>
       </c>
@@ -6067,7 +6070,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>6391</v>
       </c>
@@ -6081,7 +6084,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>6392</v>
       </c>
@@ -6095,7 +6098,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>6393</v>
       </c>
@@ -6109,7 +6112,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>6394</v>
       </c>
@@ -6123,7 +6126,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>6396</v>
       </c>
@@ -6137,7 +6140,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>6398</v>
       </c>
@@ -6151,7 +6154,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>6512</v>
       </c>
@@ -6165,7 +6168,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>6513</v>
       </c>
@@ -6179,7 +6182,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>6514</v>
       </c>
@@ -6193,7 +6196,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>6518</v>
       </c>
@@ -6207,7 +6210,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>6561</v>
       </c>
@@ -6221,7 +6224,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>6568</v>
       </c>
@@ -6235,7 +6238,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>6581</v>
       </c>
@@ -6249,7 +6252,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>6582</v>
       </c>
@@ -6263,7 +6266,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>6583</v>
       </c>
@@ -6277,7 +6280,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>6585</v>
       </c>
@@ -6291,7 +6294,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>6586</v>
       </c>
@@ -6305,7 +6308,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>6588</v>
       </c>
@@ -6319,7 +6322,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>6591</v>
       </c>
@@ -6333,7 +6336,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>6594</v>
       </c>
@@ -6347,7 +6350,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>6595</v>
       </c>
@@ -6361,7 +6364,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>6596</v>
       </c>
@@ -6375,7 +6378,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>6598</v>
       </c>
@@ -6389,7 +6392,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>6701</v>
       </c>
@@ -6403,7 +6406,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>6705</v>
       </c>
@@ -6417,7 +6420,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>6708</v>
       </c>
@@ -6431,7 +6434,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>7111</v>
       </c>
@@ -6439,13 +6442,13 @@
         <v>370</v>
       </c>
       <c r="C336" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D336" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>7113</v>
       </c>
@@ -6453,13 +6456,13 @@
         <v>371</v>
       </c>
       <c r="C337" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D337" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>7118</v>
       </c>
@@ -6467,13 +6470,13 @@
         <v>372</v>
       </c>
       <c r="C338" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D338" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>7119</v>
       </c>
@@ -6481,13 +6484,13 @@
         <v>373</v>
       </c>
       <c r="C339" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D339" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>7121</v>
       </c>
@@ -6495,13 +6498,13 @@
         <v>374</v>
       </c>
       <c r="C340" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D340" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>7122</v>
       </c>
@@ -6509,13 +6512,13 @@
         <v>375</v>
       </c>
       <c r="C341" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D341" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>7124</v>
       </c>
@@ -6523,13 +6526,13 @@
         <v>376</v>
       </c>
       <c r="C342" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D342" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>7125</v>
       </c>
@@ -6537,13 +6540,13 @@
         <v>377</v>
       </c>
       <c r="C343" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D343" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>7127</v>
       </c>
@@ -6551,13 +6554,13 @@
         <v>378</v>
       </c>
       <c r="C344" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D344" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>7128</v>
       </c>
@@ -6565,13 +6568,13 @@
         <v>379</v>
       </c>
       <c r="C345" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D345" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>7131</v>
       </c>
@@ -6579,13 +6582,13 @@
         <v>380</v>
       </c>
       <c r="C346" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D346" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>7132</v>
       </c>
@@ -6593,13 +6596,13 @@
         <v>381</v>
       </c>
       <c r="C347" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D347" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>7134</v>
       </c>
@@ -6607,13 +6610,13 @@
         <v>382</v>
       </c>
       <c r="C348" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D348" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>7141</v>
       </c>
@@ -6621,13 +6624,13 @@
         <v>383</v>
       </c>
       <c r="C349" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D349" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>7142</v>
       </c>
@@ -6635,13 +6638,13 @@
         <v>384</v>
       </c>
       <c r="C350" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D350" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>7143</v>
       </c>
@@ -6649,13 +6652,13 @@
         <v>385</v>
       </c>
       <c r="C351" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D351" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>7148</v>
       </c>
@@ -6663,13 +6666,13 @@
         <v>386</v>
       </c>
       <c r="C352" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D352" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>7161</v>
       </c>
@@ -6677,13 +6680,13 @@
         <v>387</v>
       </c>
       <c r="C353" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D353" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>7168</v>
       </c>
@@ -6691,13 +6694,13 @@
         <v>388</v>
       </c>
       <c r="C354" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D354" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>7181</v>
       </c>
@@ -6705,13 +6708,13 @@
         <v>389</v>
       </c>
       <c r="C355" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D355" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>7182</v>
       </c>
@@ -6719,13 +6722,13 @@
         <v>390</v>
       </c>
       <c r="C356" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D356" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>7185</v>
       </c>
@@ -6733,13 +6736,13 @@
         <v>391</v>
       </c>
       <c r="C357" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D357" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>7188</v>
       </c>
@@ -6747,13 +6750,13 @@
         <v>392</v>
       </c>
       <c r="C358" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D358" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>7191</v>
       </c>
@@ -6761,13 +6764,13 @@
         <v>393</v>
       </c>
       <c r="C359" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D359" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>7192</v>
       </c>
@@ -6775,13 +6778,13 @@
         <v>394</v>
       </c>
       <c r="C360" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D360" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>7193</v>
       </c>
@@ -6789,13 +6792,13 @@
         <v>395</v>
       </c>
       <c r="C361" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D361" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>7194</v>
       </c>
@@ -6803,13 +6806,13 @@
         <v>396</v>
       </c>
       <c r="C362" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D362" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>7195</v>
       </c>
@@ -6817,13 +6820,13 @@
         <v>397</v>
       </c>
       <c r="C363" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D363" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>7196</v>
       </c>
@@ -6831,13 +6834,13 @@
         <v>398</v>
       </c>
       <c r="C364" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D364" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>7197</v>
       </c>
@@ -6845,13 +6848,13 @@
         <v>399</v>
       </c>
       <c r="C365" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D365" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>7198</v>
       </c>
@@ -6859,13 +6862,13 @@
         <v>400</v>
       </c>
       <c r="C366" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D366" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>7321</v>
       </c>
@@ -6873,13 +6876,13 @@
         <v>402</v>
       </c>
       <c r="C367" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D367" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>7325</v>
       </c>
@@ -6887,13 +6890,13 @@
         <v>403</v>
       </c>
       <c r="C368" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D368" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>7328</v>
       </c>
@@ -6901,13 +6904,13 @@
         <v>404</v>
       </c>
       <c r="C369" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D369" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>7331</v>
       </c>
@@ -6915,13 +6918,13 @@
         <v>405</v>
       </c>
       <c r="C370" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D370" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>7338</v>
       </c>
@@ -6929,13 +6932,13 @@
         <v>406</v>
       </c>
       <c r="C371" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D371" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>7381</v>
       </c>
@@ -6943,13 +6946,13 @@
         <v>407</v>
       </c>
       <c r="C372" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D372" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>7383</v>
       </c>
@@ -6957,13 +6960,13 @@
         <v>408</v>
       </c>
       <c r="C373" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D373" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>7384</v>
       </c>
@@ -6971,13 +6974,13 @@
         <v>409</v>
       </c>
       <c r="C374" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D374" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>7385</v>
       </c>
@@ -6985,13 +6988,13 @@
         <v>410</v>
       </c>
       <c r="C375" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D375" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>7386</v>
       </c>
@@ -6999,13 +7002,13 @@
         <v>411</v>
       </c>
       <c r="C376" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D376" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>7388</v>
       </c>
@@ -7013,13 +7016,13 @@
         <v>412</v>
       </c>
       <c r="C377" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D377" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>7391</v>
       </c>
@@ -7027,13 +7030,13 @@
         <v>413</v>
       </c>
       <c r="C378" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D378" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>7392</v>
       </c>
@@ -7041,13 +7044,13 @@
         <v>414</v>
       </c>
       <c r="C379" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D379" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>7393</v>
       </c>
@@ -7055,13 +7058,13 @@
         <v>415</v>
       </c>
       <c r="C380" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D380" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>7394</v>
       </c>
@@ -7069,13 +7072,13 @@
         <v>416</v>
       </c>
       <c r="C381" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D381" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>7396</v>
       </c>
@@ -7083,13 +7086,13 @@
         <v>417</v>
       </c>
       <c r="C382" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D382" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>7397</v>
       </c>
@@ -7097,13 +7100,13 @@
         <v>418</v>
       </c>
       <c r="C383" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D383" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>7398</v>
       </c>
@@ -7111,13 +7114,13 @@
         <v>419</v>
       </c>
       <c r="C384" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D384" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>7512</v>
       </c>
@@ -7125,13 +7128,13 @@
         <v>421</v>
       </c>
       <c r="C385" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D385" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>7513</v>
       </c>
@@ -7139,13 +7142,13 @@
         <v>422</v>
       </c>
       <c r="C386" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D386" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>7514</v>
       </c>
@@ -7153,13 +7156,13 @@
         <v>423</v>
       </c>
       <c r="C387" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D387" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>7518</v>
       </c>
@@ -7167,13 +7170,13 @@
         <v>424</v>
       </c>
       <c r="C388" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D388" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>7561</v>
       </c>
@@ -7181,13 +7184,13 @@
         <v>425</v>
       </c>
       <c r="C389" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D389" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>7568</v>
       </c>
@@ -7195,13 +7198,13 @@
         <v>426</v>
       </c>
       <c r="C390" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D390" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>7577</v>
       </c>
@@ -7209,13 +7212,13 @@
         <v>427</v>
       </c>
       <c r="C391" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D391" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>7578</v>
       </c>
@@ -7223,13 +7226,13 @@
         <v>428</v>
       </c>
       <c r="C392" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D392" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>7581</v>
       </c>
@@ -7237,13 +7240,13 @@
         <v>429</v>
       </c>
       <c r="C393" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D393" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>7582</v>
       </c>
@@ -7251,13 +7254,13 @@
         <v>430</v>
       </c>
       <c r="C394" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D394" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>7585</v>
       </c>
@@ -7265,13 +7268,13 @@
         <v>431</v>
       </c>
       <c r="C395" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D395" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>7586</v>
       </c>
@@ -7279,13 +7282,13 @@
         <v>432</v>
       </c>
       <c r="C396" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D396" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>7588</v>
       </c>
@@ -7293,13 +7296,13 @@
         <v>433</v>
       </c>
       <c r="C397" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D397" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>7591</v>
       </c>
@@ -7307,13 +7310,13 @@
         <v>434</v>
       </c>
       <c r="C398" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D398" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>7594</v>
       </c>
@@ -7321,13 +7324,13 @@
         <v>435</v>
       </c>
       <c r="C399" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D399" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>7595</v>
       </c>
@@ -7335,13 +7338,13 @@
         <v>436</v>
       </c>
       <c r="C400" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D400" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>7596</v>
       </c>
@@ -7349,13 +7352,13 @@
         <v>437</v>
       </c>
       <c r="C401" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D401" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>7597</v>
       </c>
@@ -7363,13 +7366,13 @@
         <v>438</v>
       </c>
       <c r="C402" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D402" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>7598</v>
       </c>
@@ -7377,13 +7380,13 @@
         <v>439</v>
       </c>
       <c r="C403" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D403" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>8171</v>
       </c>
@@ -7391,13 +7394,13 @@
         <v>442</v>
       </c>
       <c r="C404" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D404" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>8179</v>
       </c>
@@ -7427,9 +7430,9 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1111</v>
       </c>
@@ -7443,7 +7446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1112</v>
       </c>
@@ -7457,7 +7460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1117</v>
       </c>
@@ -7471,7 +7474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1119</v>
       </c>
@@ -7485,7 +7488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1121</v>
       </c>
@@ -7499,7 +7502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1122</v>
       </c>
@@ -7513,7 +7516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1123</v>
       </c>
@@ -7527,7 +7530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1130</v>
       </c>
@@ -7541,7 +7544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1140</v>
       </c>
@@ -7555,7 +7558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1151</v>
       </c>
@@ -7569,7 +7572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1152</v>
       </c>
@@ -7583,7 +7586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1155</v>
       </c>
@@ -7597,7 +7600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1161</v>
       </c>
@@ -7611,7 +7614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1169</v>
       </c>
@@ -7625,7 +7628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1181</v>
       </c>
@@ -7639,7 +7642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1189</v>
       </c>
@@ -7653,7 +7656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1191</v>
       </c>
@@ -7667,7 +7670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1199</v>
       </c>
@@ -7681,7 +7684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1311</v>
       </c>
@@ -7695,7 +7698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1319</v>
       </c>
@@ -7709,7 +7712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1351</v>
       </c>
@@ -7723,7 +7726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1352</v>
       </c>
@@ -7737,7 +7740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1354</v>
       </c>
@@ -7751,7 +7754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1355</v>
       </c>
@@ -7765,7 +7768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1356</v>
       </c>
@@ -7779,7 +7782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1358</v>
       </c>
@@ -7793,7 +7796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1410</v>
       </c>
@@ -7807,7 +7810,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1481</v>
       </c>
@@ -7821,7 +7824,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1482</v>
       </c>
@@ -7835,7 +7838,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1483</v>
       </c>
@@ -7849,7 +7852,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1484</v>
       </c>
@@ -7863,7 +7866,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1485</v>
       </c>
@@ -7877,7 +7880,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1486</v>
       </c>
@@ -7891,7 +7894,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1487</v>
       </c>
@@ -7905,7 +7908,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1488</v>
       </c>
@@ -7919,7 +7922,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1511</v>
       </c>
@@ -7933,7 +7936,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1512</v>
       </c>
@@ -7947,7 +7950,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1513</v>
       </c>
@@ -7961,7 +7964,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1514</v>
       </c>
@@ -7975,7 +7978,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1515</v>
       </c>
@@ -7989,7 +7992,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1516</v>
       </c>
@@ -8003,7 +8006,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1518</v>
       </c>
@@ -8017,7 +8020,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1551</v>
       </c>
@@ -8031,7 +8034,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1552</v>
       </c>
@@ -8045,7 +8048,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1555</v>
       </c>
@@ -8059,7 +8062,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1558</v>
       </c>
@@ -8073,7 +8076,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1601</v>
       </c>
@@ -8087,7 +8090,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1605</v>
       </c>
@@ -8101,7 +8104,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1710</v>
       </c>
@@ -8115,7 +8118,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1720</v>
       </c>
@@ -8129,7 +8132,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2111</v>
       </c>
@@ -8143,7 +8146,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2112</v>
       </c>
@@ -8157,7 +8160,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2113</v>
       </c>
@@ -8171,7 +8174,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2114</v>
       </c>
@@ -8185,7 +8188,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2116</v>
       </c>
@@ -8199,7 +8202,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2117</v>
       </c>
@@ -8213,7 +8216,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2118</v>
       </c>
@@ -8227,7 +8230,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2121</v>
       </c>
@@ -8241,7 +8244,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2125</v>
       </c>
@@ -8255,7 +8258,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2128</v>
       </c>
@@ -8269,7 +8272,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2130</v>
       </c>
@@ -8283,7 +8286,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2210</v>
       </c>
@@ -8297,7 +8300,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2220</v>
       </c>
@@ -8311,7 +8314,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2230</v>
       </c>
@@ -8325,7 +8328,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2285</v>
       </c>
@@ -8339,7 +8342,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2311</v>
       </c>
@@ -8353,7 +8356,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2312</v>
       </c>
@@ -8367,7 +8370,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2313</v>
       </c>
@@ -8381,7 +8384,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2314</v>
       </c>
@@ -8395,7 +8398,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2316</v>
       </c>
@@ -8409,7 +8412,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2318</v>
       </c>
@@ -8423,7 +8426,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2321</v>
       </c>
@@ -8437,7 +8440,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2323</v>
       </c>
@@ -8451,7 +8454,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2325</v>
       </c>
@@ -8465,7 +8468,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2327</v>
       </c>
@@ -8479,7 +8482,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2328</v>
       </c>
@@ -8493,7 +8496,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2331</v>
       </c>
@@ -8507,7 +8510,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2332</v>
       </c>
@@ -8521,7 +8524,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2333</v>
       </c>
@@ -8535,7 +8538,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2338</v>
       </c>
@@ -8549,7 +8552,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2340</v>
       </c>
@@ -8563,7 +8566,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2351</v>
       </c>
@@ -8577,7 +8580,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2352</v>
       </c>
@@ -8591,7 +8594,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2355</v>
       </c>
@@ -8605,7 +8608,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2356</v>
       </c>
@@ -8619,7 +8622,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2358</v>
       </c>
@@ -8633,7 +8636,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2380</v>
       </c>
@@ -8647,7 +8650,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2392</v>
       </c>
@@ -8661,7 +8664,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2393</v>
       </c>
@@ -8675,7 +8678,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2394</v>
       </c>
@@ -8689,7 +8692,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2395</v>
       </c>
@@ -8703,7 +8706,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2397</v>
       </c>
@@ -8717,7 +8720,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2398</v>
       </c>
@@ -8731,7 +8734,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2411</v>
       </c>
@@ -8745,7 +8748,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2415</v>
       </c>
@@ -8759,7 +8762,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2416</v>
       </c>
@@ -8773,7 +8776,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2418</v>
       </c>
@@ -8787,7 +8790,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2481</v>
       </c>
@@ -8801,7 +8804,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2483</v>
       </c>
@@ -8815,7 +8818,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2486</v>
       </c>
@@ -8829,7 +8832,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2487</v>
       </c>
@@ -8843,7 +8846,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2488</v>
       </c>
@@ -8857,7 +8860,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2510</v>
       </c>
@@ -8871,7 +8874,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2581</v>
       </c>
@@ -8885,7 +8888,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2588</v>
       </c>
@@ -8899,7 +8902,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2710</v>
       </c>
@@ -8913,7 +8916,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2720</v>
       </c>
@@ -8927,7 +8930,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2811</v>
       </c>
@@ -8941,7 +8944,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2812</v>
       </c>
@@ -8955,7 +8958,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2821</v>
       </c>
@@ -8969,7 +8972,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2822</v>
       </c>
@@ -8983,7 +8986,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2823</v>
       </c>
@@ -8997,7 +9000,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2828</v>
       </c>
@@ -9011,7 +9014,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2831</v>
       </c>
@@ -9025,7 +9028,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2832</v>
       </c>
@@ -9039,7 +9042,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2833</v>
       </c>
@@ -9053,7 +9056,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2834</v>
       </c>
@@ -9067,7 +9070,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2835</v>
       </c>
@@ -9081,7 +9084,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2838</v>
       </c>
@@ -9095,7 +9098,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2920</v>
       </c>
@@ -9109,7 +9112,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2930</v>
       </c>
@@ -9123,7 +9126,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2941</v>
       </c>
@@ -9137,7 +9140,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2948</v>
       </c>
@@ -9151,7 +9154,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2951</v>
       </c>
@@ -9165,7 +9168,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2958</v>
       </c>
@@ -9179,7 +9182,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>3111</v>
       </c>
@@ -9193,7 +9196,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>3112</v>
       </c>
@@ -9207,7 +9210,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>3116</v>
       </c>
@@ -9221,7 +9224,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>3118</v>
       </c>
@@ -9235,7 +9238,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>3121</v>
       </c>
@@ -9249,7 +9252,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>3122</v>
       </c>
@@ -9263,7 +9266,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>3123</v>
       </c>
@@ -9277,7 +9280,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>3126</v>
       </c>
@@ -9291,7 +9294,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>3128</v>
       </c>
@@ -9305,7 +9308,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>3131</v>
       </c>
@@ -9319,7 +9322,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>3134</v>
       </c>
@@ -9333,7 +9336,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>3138</v>
       </c>
@@ -9347,7 +9350,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>3141</v>
       </c>
@@ -9361,7 +9364,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>3145</v>
       </c>
@@ -9375,7 +9378,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>3148</v>
       </c>
@@ -9389,7 +9392,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>3151</v>
       </c>
@@ -9403,7 +9406,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>3152</v>
       </c>
@@ -9417,7 +9420,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>3156</v>
       </c>
@@ -9431,7 +9434,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>3158</v>
       </c>
@@ -9445,7 +9448,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>3411</v>
       </c>
@@ -9459,7 +9462,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>3413</v>
       </c>
@@ -9473,7 +9476,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>3417</v>
       </c>
@@ -9487,7 +9490,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>3418</v>
       </c>
@@ -9501,7 +9504,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>3421</v>
       </c>
@@ -9515,7 +9518,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>3423</v>
       </c>
@@ -9529,7 +9532,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>3424</v>
       </c>
@@ -9543,7 +9546,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>3425</v>
       </c>
@@ -9557,7 +9560,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>3427</v>
       </c>
@@ -9571,7 +9574,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>3428</v>
       </c>
@@ -9585,7 +9588,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>3431</v>
       </c>
@@ -9599,7 +9602,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>3438</v>
       </c>
@@ -9613,7 +9616,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>3451</v>
       </c>
@@ -9627,7 +9630,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>3453</v>
       </c>
@@ -9641,7 +9644,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>3455</v>
       </c>
@@ -9655,7 +9658,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>3456</v>
       </c>
@@ -9669,7 +9672,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>3458</v>
       </c>
@@ -9683,7 +9686,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>3461</v>
       </c>
@@ -9697,7 +9700,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>3462</v>
       </c>
@@ -9711,7 +9714,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>3463</v>
       </c>
@@ -9725,7 +9728,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>3464</v>
       </c>
@@ -9739,7 +9742,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>3467</v>
       </c>
@@ -9753,7 +9756,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>3468</v>
       </c>
@@ -9767,7 +9770,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>3481</v>
       </c>
@@ -9781,7 +9784,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>3482</v>
       </c>
@@ -9795,7 +9798,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>3487</v>
       </c>
@@ -9809,7 +9812,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>3488</v>
       </c>
@@ -9823,7 +9826,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>3491</v>
       </c>
@@ -9837,7 +9840,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>3493</v>
       </c>
@@ -9851,7 +9854,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>3495</v>
       </c>
@@ -9865,7 +9868,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>3497</v>
       </c>
@@ -9879,7 +9882,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>3501</v>
       </c>
@@ -9893,7 +9896,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>3502</v>
       </c>
@@ -9907,7 +9910,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>3504</v>
       </c>
@@ -9921,7 +9924,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>3506</v>
       </c>
@@ -9935,7 +9938,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>3508</v>
       </c>
@@ -9949,7 +9952,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>3701</v>
       </c>
@@ -9963,7 +9966,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>3702</v>
       </c>
@@ -9977,7 +9980,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>3911</v>
       </c>
@@ -9991,7 +9994,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>3912</v>
       </c>
@@ -10005,7 +10008,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>3913</v>
       </c>
@@ -10019,7 +10022,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>3914</v>
       </c>
@@ -10033,7 +10036,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>3915</v>
       </c>
@@ -10047,7 +10050,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>3941</v>
       </c>
@@ -10061,7 +10064,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>3942</v>
       </c>
@@ -10075,7 +10078,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>3943</v>
       </c>
@@ -10089,7 +10092,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>3946</v>
       </c>
@@ -10103,7 +10106,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>3948</v>
       </c>
@@ -10117,7 +10120,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>3950</v>
       </c>
@@ -10131,7 +10134,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>4411</v>
       </c>
@@ -10145,7 +10148,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>4413</v>
       </c>
@@ -10159,7 +10162,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>4415</v>
       </c>
@@ -10173,7 +10176,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>4417</v>
       </c>
@@ -10187,7 +10190,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>4418</v>
       </c>
@@ -10201,7 +10204,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>4421</v>
       </c>
@@ -10215,7 +10218,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>4425</v>
       </c>
@@ -10229,7 +10232,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>4427</v>
       </c>
@@ -10243,7 +10246,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>4428</v>
       </c>
@@ -10257,7 +10260,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>4432</v>
       </c>
@@ -10271,7 +10274,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>4433</v>
       </c>
@@ -10285,7 +10288,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>4434</v>
       </c>
@@ -10299,7 +10302,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>4437</v>
       </c>
@@ -10313,7 +10316,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>4438</v>
       </c>
@@ -10327,7 +10330,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>4441</v>
       </c>
@@ -10341,7 +10344,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>4443</v>
       </c>
@@ -10355,7 +10358,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>4445</v>
       </c>
@@ -10369,7 +10372,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>4447</v>
       </c>
@@ -10383,7 +10386,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>4448</v>
       </c>
@@ -10397,7 +10400,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>4452</v>
       </c>
@@ -10411,7 +10414,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>4453</v>
       </c>
@@ -10425,7 +10428,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>4455</v>
       </c>
@@ -10439,7 +10442,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>4456</v>
       </c>
@@ -10453,7 +10456,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>4457</v>
       </c>
@@ -10467,7 +10470,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>4458</v>
       </c>
@@ -10481,7 +10484,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>4461</v>
       </c>
@@ -10495,7 +10498,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>4462</v>
       </c>
@@ -10509,7 +10512,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>4463</v>
       </c>
@@ -10523,7 +10526,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>4464</v>
       </c>
@@ -10537,7 +10540,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>4465</v>
       </c>
@@ -10551,7 +10554,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>4468</v>
       </c>
@@ -10565,7 +10568,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>4481</v>
       </c>
@@ -10579,7 +10582,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>4483</v>
       </c>
@@ -10593,7 +10596,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>4484</v>
       </c>
@@ -10607,7 +10610,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>4485</v>
       </c>
@@ -10621,7 +10624,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>4487</v>
       </c>
@@ -10635,7 +10638,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>4488</v>
       </c>
@@ -10649,7 +10652,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>4491</v>
       </c>
@@ -10663,7 +10666,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>4493</v>
       </c>
@@ -10677,7 +10680,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>4495</v>
       </c>
@@ -10691,7 +10694,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>4497</v>
       </c>
@@ -10705,7 +10708,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>4501</v>
       </c>
@@ -10719,7 +10722,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>4502</v>
       </c>
@@ -10733,7 +10736,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>4505</v>
       </c>
@@ -10747,7 +10750,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>4506</v>
       </c>
@@ -10761,7 +10764,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>4507</v>
       </c>
@@ -10775,7 +10778,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>4508</v>
       </c>
@@ -10789,7 +10792,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>4701</v>
       </c>
@@ -10803,7 +10806,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>4702</v>
       </c>
@@ -10817,7 +10820,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>5111</v>
       </c>
@@ -10831,7 +10834,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>5113</v>
       </c>
@@ -10845,7 +10848,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>5115</v>
       </c>
@@ -10859,7 +10862,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>5118</v>
       </c>
@@ -10873,7 +10876,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>5141</v>
       </c>
@@ -10887,7 +10890,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>5143</v>
       </c>
@@ -10901,7 +10904,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>5146</v>
       </c>
@@ -10915,7 +10918,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>5148</v>
       </c>
@@ -10929,7 +10932,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>5161</v>
       </c>
@@ -10943,7 +10946,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>5165</v>
       </c>
@@ -10957,7 +10960,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>5520</v>
       </c>
@@ -10971,7 +10974,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>5530</v>
       </c>
@@ -10985,7 +10988,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>5541</v>
       </c>
@@ -10999,7 +11002,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>5548</v>
       </c>
@@ -11013,7 +11016,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>5900</v>
       </c>
@@ -11027,7 +11030,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>6111</v>
       </c>
@@ -11041,7 +11044,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>6112</v>
       </c>
@@ -11055,7 +11058,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>6114</v>
       </c>
@@ -11069,7 +11072,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>6118</v>
       </c>
@@ -11083,7 +11086,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>6119</v>
       </c>
@@ -11097,7 +11100,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>6121</v>
       </c>
@@ -11111,7 +11114,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>6122</v>
       </c>
@@ -11125,7 +11128,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>6123</v>
       </c>
@@ -11139,7 +11142,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>6124</v>
       </c>
@@ -11153,7 +11156,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>6125</v>
       </c>
@@ -11167,7 +11170,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>6126</v>
       </c>
@@ -11181,7 +11184,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>6128</v>
       </c>
@@ -11195,7 +11198,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>6129</v>
       </c>
@@ -11209,7 +11212,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>6131</v>
       </c>
@@ -11223,7 +11226,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>6132</v>
       </c>
@@ -11237,7 +11240,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>6133</v>
       </c>
@@ -11251,7 +11254,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>6134</v>
       </c>
@@ -11265,7 +11268,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>6135</v>
       </c>
@@ -11279,7 +11282,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>6136</v>
       </c>
@@ -11293,7 +11296,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>6137</v>
       </c>
@@ -11307,7 +11310,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>6141</v>
       </c>
@@ -11321,7 +11324,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>6142</v>
       </c>
@@ -11335,7 +11338,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>6143</v>
       </c>
@@ -11349,7 +11352,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>6144</v>
       </c>
@@ -11363,7 +11366,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>6145</v>
       </c>
@@ -11377,7 +11380,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>6146</v>
       </c>
@@ -11391,7 +11394,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>6147</v>
       </c>
@@ -11405,7 +11408,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>6148</v>
       </c>
@@ -11419,7 +11422,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>6149</v>
       </c>
@@ -11433,7 +11436,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>6161</v>
       </c>
@@ -11447,7 +11450,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>6165</v>
       </c>
@@ -11461,7 +11464,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>6167</v>
       </c>
@@ -11475,7 +11478,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>6168</v>
       </c>
@@ -11489,7 +11492,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>6171</v>
       </c>
@@ -11503,7 +11506,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>6174</v>
       </c>
@@ -11517,7 +11520,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>6176</v>
       </c>
@@ -11531,7 +11534,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>6177</v>
       </c>
@@ -11545,7 +11548,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>6178</v>
       </c>
@@ -11559,7 +11562,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>6181</v>
       </c>
@@ -11573,7 +11576,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>6182</v>
       </c>
@@ -11587,7 +11590,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>6185</v>
       </c>
@@ -11601,7 +11604,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>6186</v>
       </c>
@@ -11615,7 +11618,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>6188</v>
       </c>
@@ -11629,7 +11632,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>6191</v>
       </c>
@@ -11643,7 +11646,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>6192</v>
       </c>
@@ -11657,7 +11660,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>6193</v>
       </c>
@@ -11671,7 +11674,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>6194</v>
       </c>
@@ -11685,7 +11688,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>6195</v>
       </c>
@@ -11699,7 +11702,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>6196</v>
       </c>
@@ -11713,7 +11716,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>6198</v>
       </c>
@@ -11727,7 +11730,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>6311</v>
       </c>
@@ -11741,7 +11744,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>6318</v>
       </c>
@@ -11755,7 +11758,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>6331</v>
       </c>
@@ -11769,7 +11772,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>6338</v>
       </c>
@@ -11783,7 +11786,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>6382</v>
       </c>
@@ -11797,7 +11800,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>6385</v>
       </c>
@@ -11811,7 +11814,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>6386</v>
       </c>
@@ -11825,7 +11828,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>6388</v>
       </c>
@@ -11839,7 +11842,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>6391</v>
       </c>
@@ -11853,7 +11856,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>6392</v>
       </c>
@@ -11867,7 +11870,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>6393</v>
       </c>
@@ -11881,7 +11884,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>6394</v>
       </c>
@@ -11895,7 +11898,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>6396</v>
       </c>
@@ -11909,7 +11912,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>6398</v>
       </c>
@@ -11923,7 +11926,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>6512</v>
       </c>
@@ -11937,7 +11940,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>6513</v>
       </c>
@@ -11951,7 +11954,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>6514</v>
       </c>
@@ -11965,7 +11968,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>6518</v>
       </c>
@@ -11979,7 +11982,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>6561</v>
       </c>
@@ -11993,7 +11996,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>6568</v>
       </c>
@@ -12007,7 +12010,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>6581</v>
       </c>
@@ -12021,7 +12024,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>6582</v>
       </c>
@@ -12035,7 +12038,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>6583</v>
       </c>
@@ -12049,7 +12052,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>6585</v>
       </c>
@@ -12063,7 +12066,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>6586</v>
       </c>
@@ -12077,7 +12080,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>6588</v>
       </c>
@@ -12091,7 +12094,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>6591</v>
       </c>
@@ -12105,7 +12108,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>6594</v>
       </c>
@@ -12119,7 +12122,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>6595</v>
       </c>
@@ -12133,7 +12136,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>6596</v>
       </c>
@@ -12147,7 +12150,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>6598</v>
       </c>
@@ -12161,7 +12164,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>6701</v>
       </c>
@@ -12175,7 +12178,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>6705</v>
       </c>
@@ -12189,7 +12192,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>6708</v>
       </c>
@@ -12203,7 +12206,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>7111</v>
       </c>
@@ -12217,7 +12220,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>7113</v>
       </c>
@@ -12231,7 +12234,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>7118</v>
       </c>
@@ -12245,7 +12248,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>7119</v>
       </c>
@@ -12259,7 +12262,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>7121</v>
       </c>
@@ -12273,7 +12276,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>7122</v>
       </c>
@@ -12287,7 +12290,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>7124</v>
       </c>
@@ -12301,7 +12304,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>7125</v>
       </c>
@@ -12315,7 +12318,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>7126</v>
       </c>
@@ -12329,7 +12332,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>7127</v>
       </c>
@@ -12343,7 +12346,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>7128</v>
       </c>
@@ -12357,7 +12360,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>7129</v>
       </c>
@@ -12371,7 +12374,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>7131</v>
       </c>
@@ -12385,7 +12388,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>7132</v>
       </c>
@@ -12399,7 +12402,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>7134</v>
       </c>
@@ -12413,7 +12416,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>7141</v>
       </c>
@@ -12427,7 +12430,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>7142</v>
       </c>
@@ -12441,7 +12444,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>7143</v>
       </c>
@@ -12455,7 +12458,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>7148</v>
       </c>
@@ -12469,7 +12472,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>7161</v>
       </c>
@@ -12483,7 +12486,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>7168</v>
       </c>
@@ -12497,7 +12500,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>7181</v>
       </c>
@@ -12511,7 +12514,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>7182</v>
       </c>
@@ -12525,7 +12528,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>7185</v>
       </c>
@@ -12539,7 +12542,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>7186</v>
       </c>
@@ -12553,7 +12556,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>7188</v>
       </c>
@@ -12567,7 +12570,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>7191</v>
       </c>
@@ -12581,7 +12584,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>7192</v>
       </c>
@@ -12595,7 +12598,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>7193</v>
       </c>
@@ -12609,7 +12612,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>7194</v>
       </c>
@@ -12623,7 +12626,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>7195</v>
       </c>
@@ -12637,7 +12640,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>7196</v>
       </c>
@@ -12651,7 +12654,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>7197</v>
       </c>
@@ -12665,7 +12668,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>7198</v>
       </c>
@@ -12679,7 +12682,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>7321</v>
       </c>
@@ -12693,7 +12696,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>7325</v>
       </c>
@@ -12707,7 +12710,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>7328</v>
       </c>
@@ -12721,7 +12724,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>7331</v>
       </c>
@@ -12735,7 +12738,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>7338</v>
       </c>
@@ -12749,7 +12752,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>7381</v>
       </c>
@@ -12763,7 +12766,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>7383</v>
       </c>
@@ -12777,7 +12780,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>7384</v>
       </c>
@@ -12791,7 +12794,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>7385</v>
       </c>
@@ -12805,7 +12808,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>7386</v>
       </c>
@@ -12819,7 +12822,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>7388</v>
       </c>
@@ -12833,7 +12836,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>7391</v>
       </c>
@@ -12847,7 +12850,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>7392</v>
       </c>
@@ -12861,7 +12864,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>7393</v>
       </c>
@@ -12875,7 +12878,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>7394</v>
       </c>
@@ -12889,7 +12892,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>7396</v>
       </c>
@@ -12903,7 +12906,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>7397</v>
       </c>
@@ -12917,7 +12920,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>7398</v>
       </c>
@@ -12931,7 +12934,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>7512</v>
       </c>
@@ -12945,7 +12948,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>7513</v>
       </c>
@@ -12959,7 +12962,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>7514</v>
       </c>
@@ -12973,7 +12976,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>7518</v>
       </c>
@@ -12987,7 +12990,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>7561</v>
       </c>
@@ -13001,7 +13004,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>7568</v>
       </c>
@@ -13015,7 +13018,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>7577</v>
       </c>
@@ -13029,7 +13032,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>7578</v>
       </c>
@@ -13043,7 +13046,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>7581</v>
       </c>
@@ -13057,7 +13060,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>7582</v>
       </c>
@@ -13071,7 +13074,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>7585</v>
       </c>
@@ -13085,7 +13088,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>7586</v>
       </c>
@@ -13099,7 +13102,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>7588</v>
       </c>
@@ -13113,7 +13116,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>7591</v>
       </c>
@@ -13127,7 +13130,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>7594</v>
       </c>
@@ -13141,7 +13144,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>7595</v>
       </c>
@@ -13155,7 +13158,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>7596</v>
       </c>
@@ -13169,7 +13172,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>7597</v>
       </c>
@@ -13183,7 +13186,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>7598</v>
       </c>
@@ -13197,7 +13200,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>8171</v>
       </c>
@@ -13211,7 +13214,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>8179</v>
       </c>
